--- a/datasets/glove-200-euclidean-true-labels.xlsx
+++ b/datasets/glove-200-euclidean-true-labels.xlsx
@@ -751,7 +751,7 @@
  5.9149 5.9395 5.9402 5.9465 5.9482 5.949  5.9548 5.9551 5.9564 5.9587
  5.9604 5.9622 5.9655 5.9676 5.9693 5.9696 5.9745 5.9763 5.9767 5.9769
  5.977  5.9771 5.9772 5.9772 5.9778 5.9793 5.9794 5.9798 5.9799 5.98
- 5.9802 5.9802 5.9804 5.9817 5.9819 5.9822 5.9825 5.9829 5.9831 5.9832
+ 5.9802 5.9802 5.9804 5.9817 5.9819 5.9821 5.9825 5.9829 5.9831 5.9832
  5.9835 5.9838 5.984  5.9841 5.985  5.9853 5.9854 5.986  5.9865 5.9868
  5.987  5.9874 5.9878 5.9879 5.9879 5.9898 5.9904 5.9908 5.9909 5.9909
  5.9912 5.9912 5.9914 5.9921 5.9921 5.9924 5.9928 5.9935 5.9937 5.9939
@@ -854,7 +854,7 @@
         <is>
           <t>[4.5804 4.6318 4.6643 4.672  4.6733 4.6813 4.6822 4.6833 4.686  4.6914
  4.7011 4.7244 4.7278 4.7289 4.7323 4.7326 4.7381 4.7383 4.7386 4.7403
- 4.7511 4.7535 4.7542 4.7582 4.7602 4.7645 4.7699 4.7712 4.7744 4.7782
+ 4.7511 4.7535 4.7542 4.7582 4.7602 4.7645 4.7699 4.7713 4.7744 4.7782
  4.7801 4.7861 4.7905 4.7908 4.7933 4.8029 4.8065 4.8071 4.8089 4.8101
  4.8108 4.8114 4.8123 4.8123 4.8154 4.8227 4.8237 4.8265 4.8293 4.8301
  4.8315 4.8316 4.8358 4.8358 4.8371 4.8371 4.8391 4.8391 4.8392 4.8435
@@ -1029,7 +1029,7 @@
         <is>
           <t>[4.637  4.8164 4.835  5.0374 5.0747 5.1431 5.1808 5.2511 5.255  5.2852
  5.4324 5.4743 5.483  5.5212 5.6697 5.8918 5.9081 5.9588 6.0455 6.0494
- 6.0508 6.0639 6.0691 6.1199 6.1394 6.1854 6.1889 6.2044 6.2047 6.2064
+ 6.0508 6.0639 6.0691 6.1199 6.1394 6.1854 6.1889 6.2044 6.2047 6.2063
  6.2203 6.2535 6.2672 6.3046 6.3106 6.3306 6.3341 6.3379 6.3626 6.3832
  6.4021 6.4219 6.4298 6.445  6.4476 6.4552 6.4576 6.4619 6.4646 6.4806
  6.4858 6.486  6.5083 6.5282 6.5331 6.5533 6.5538 6.5824 6.6007 6.6071
@@ -1069,7 +1069,7 @@
  6.848  6.8487 6.8499 6.8511 6.8513 6.8517 6.8538 6.8548 6.8552 6.8564
  6.8579 6.8597 6.8601 6.8612 6.8613 6.8623 6.8632 6.8635 6.8636 6.8701
  6.8703 6.8705 6.8716 6.8716 6.8722 6.8749 6.8766 6.879  6.8806 6.8815
- 6.882  6.8824 6.8839 6.8848 6.8851 6.8852 6.8859 6.8865 6.8869 6.8878
+ 6.882  6.8824 6.8838 6.8848 6.8851 6.8852 6.8859 6.8865 6.8869 6.8878
  6.8894 6.8895 6.8898 6.8905 6.8905 6.8911 6.8914 6.8915 6.8922 6.8923
  6.8925 6.893  6.8935 6.8937 6.8953 6.8956 6.8971 6.8972 6.8973 6.8973]</t>
         </is>
@@ -2291,7 +2291,7 @@
  7.5091 7.5314 7.5319 7.5321 7.5353 7.5357 7.5384 7.5453 7.5497 7.551
  7.5559 7.5626 7.5628 7.5642 7.5657 7.5746 7.5767 7.5806 7.5812 7.5824
  7.585  7.5858 7.5891 7.5906 7.5912 7.5914 7.5955 7.5972 7.5983 7.5991
- 7.5994 7.6006 7.6012 7.6014 7.6015 7.6017 7.6033 7.6058 7.6078 7.6133
+ 7.5993 7.6006 7.6012 7.6014 7.6015 7.6017 7.6033 7.6058 7.6078 7.6133
  7.616  7.6162 7.6173 7.6194 7.6199 7.6217 7.6219 7.6226 7.6226 7.625
  7.6259 7.628  7.6303 7.6316 7.632  7.6327 7.6343 7.6352 7.6369 7.6372
  7.6375 7.6381 7.6397 7.6399 7.64   7.6413 7.6425 7.6431 7.6459 7.6471
@@ -2884,7 +2884,7 @@
         <is>
           <t>[6.9915 6.9918 6.9929 7.002  7.0053 7.0067 7.0138 7.0157 7.0193 7.0196
  7.0198 7.0241 7.0311 7.0327 7.0343 7.0381 7.0389 7.0395 7.0418 7.0419
- 7.0548 7.0558 7.0567 7.069  7.0735 7.0737 7.0772 7.0804 7.0809 7.0835
+ 7.0548 7.0558 7.0567 7.069  7.0735 7.0737 7.0772 7.0805 7.0809 7.0835
  7.0838 7.0844 7.085  7.0861 7.0868 7.0893 7.0894 7.0912 7.0917 7.0935
  7.0951 7.0952 7.0966 7.098  7.0992 7.0994 7.1019 7.1042 7.1042 7.1059
  7.1059 7.1063 7.1066 7.1071 7.1085 7.1088 7.109  7.1092 7.1097 7.1101
@@ -2917,7 +2917,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[5.8809 5.9796 5.9826 5.9957 6.0038 6.0044 6.0381 6.056  6.0771 6.1011
+          <t>[5.8809 5.9796 5.9826 5.9957 6.0038 6.0044 6.0381 6.0561 6.0771 6.1011
  6.1018 6.1081 6.113  6.1142 6.1149 6.1154 6.1157 6.1197 6.1214 6.1228
  6.1292 6.1295 6.1319 6.1415 6.1479 6.1495 6.1504 6.1517 6.1585 6.1625
  6.1641 6.1656 6.1657 6.1696 6.1712 6.1744 6.1761 6.1782 6.179  6.1814
@@ -3167,7 +3167,7 @@
  5.613  5.6175 5.6214 5.6276 5.6299 5.6311 5.6389 5.6392 5.6406 5.641
  5.6425 5.6443 5.6453 5.6461 5.6483 5.6486 5.6497 5.6544 5.6545 5.6551
  5.6561 5.657  5.6573 5.658  5.6588 5.6612 5.6613 5.6618 5.6635 5.6636
- 5.6636 5.6636 5.6639 5.6641 5.6642 5.6649 5.665  5.6655 5.6665 5.6684
+ 5.6636 5.6636 5.6639 5.6641 5.6643 5.6649 5.665  5.6655 5.6665 5.6684
  5.6692 5.6708 5.6715 5.6723 5.6728 5.6728 5.6733 5.6747 5.6751 5.676
  5.6764 5.677  5.6786 5.6802 5.6804 5.6813 5.6833 5.6839 5.6857 5.6888
  5.6891 5.6893 5.6903 5.6903 5.6914 5.6942 5.6958 5.697  5.6974 5.698
@@ -3479,7 +3479,7 @@
         <is>
           <t>[5.0905 5.2467 5.2954 5.2959 5.2967 5.3138 5.3166 5.3198 5.3244 5.3369
  5.3379 5.3485 5.3564 5.3571 5.3573 5.3575 5.358  5.3588 5.3603 5.3642
- 5.3648 5.3666 5.3673 5.3782 5.3814 5.3835 5.3841 5.3842 5.3842 5.3851
+ 5.3648 5.3666 5.3673 5.3782 5.3814 5.3835 5.3841 5.3842 5.3842 5.385
  5.3853 5.3881 5.3888 5.3896 5.3897 5.3898 5.3903 5.3903 5.3903 5.3909
  5.391  5.3911 5.3936 5.3937 5.3939 5.3947 5.3951 5.3952 5.3953 5.3957
  5.3964 5.3982 5.3986 5.3992 5.3999 5.4008 5.4032 5.4033 5.4035 5.4037
@@ -3991,7 +3991,7 @@
    11566  667618  218406  825529  636905 1109855  784837  922232  877138
   446841  208256    4775  236863  849326  520489 1149621  304937 1177075
   749683   54944  857092   85662 1047998  524951  524523  407387  221171
-  233420  930999  287934  140706  742031 1065034   34458  733991  558934
+  233420  287934  930999  140706  742031 1065034   34458  733991  558934
   998773  442428  296724  316707  196305  705923  949708  404599  547471
   761056  826480 1121509  422440  736700   75348   14619  660917  984874
   532491 1063823  623711 1170379  104776  289823  295736  247408    7129
@@ -4002,7 +4002,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[6.7868 6.7929 6.8201 6.8324 6.84   6.8424 6.849  6.8572 6.8573 6.8612
+          <t>[6.7868 6.7929 6.8201 6.8324 6.84   6.8424 6.849  6.8572 6.8573 6.8613
  6.8659 6.8663 6.8683 6.8698 6.8709 6.8862 6.8888 6.8889 6.8892 6.8929
  6.8942 6.8968 6.8982 6.9023 6.903  6.9058 6.9061 6.907  6.9074 6.9097
  6.9098 6.9104 6.9115 6.9125 6.9139 6.9148 6.9168 6.9176 6.9179 6.9207
@@ -4177,7 +4177,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[6.397  6.5004 6.5089 6.5107 6.5179 6.5208 6.5243 6.547  6.5866 6.5959
+          <t>[6.3971 6.5004 6.5089 6.5107 6.5179 6.5208 6.5243 6.547  6.5866 6.5959
  6.5997 6.6053 6.6088 6.609  6.6092 6.6238 6.6398 6.6485 6.6503 6.6536
  6.6602 6.6626 6.6683 6.6684 6.67   6.6773 6.6799 6.6811 6.6821 6.6864
  6.6867 6.6883 6.6914 6.6947 6.7001 6.7003 6.7034 6.7064 6.7072 6.7081
@@ -4600,7 +4600,7 @@
           <t>[4.7904 4.8574 4.9192 5.1176 5.1466 5.1812 5.1877 5.1989 5.2088 5.2092
  5.225  5.2276 5.2558 5.2615 5.2827 5.2911 5.3152 5.3228 5.3637 5.3659
  5.3779 5.3916 5.3993 5.402  5.4144 5.4219 5.4268 5.4474 5.4483 5.4534
- 5.4547 5.4549 5.4873 5.4924 5.5028 5.5067 5.5132 5.5201 5.5201 5.5262
+ 5.4547 5.4549 5.4873 5.4924 5.5028 5.5067 5.5132 5.52   5.5201 5.5262
  5.529  5.5299 5.5423 5.5514 5.5685 5.5713 5.5851 5.5879 5.5924 5.5989
  5.6    5.6065 5.6124 5.6131 5.6155 5.628  5.6338 5.6365 5.6404 5.6424
  5.6426 5.6438 5.6447 5.6479 5.6559 5.6566 5.6579 5.6587 5.6625 5.6662
@@ -4705,7 +4705,7 @@
           <t>[4.6991 4.7064 4.7252 4.7359 4.7503 4.7508 4.7521 4.7658 4.769  4.775
  4.7765 4.7786 4.7859 4.7874 4.7882 4.7928 4.8035 4.804  4.8049 4.8063
  4.8095 4.8165 4.82   4.8254 4.8271 4.8275 4.8298 4.8302 4.8306 4.8319
- 4.8351 4.836  4.8378 4.8409 4.842  4.8424 4.8452 4.8457 4.8461 4.8473
+ 4.8351 4.836  4.8378 4.8409 4.842  4.8424 4.8452 4.8457 4.8461 4.8472
  4.8477 4.8501 4.8524 4.8527 4.8527 4.8545 4.8556 4.8559 4.857  4.8583
  4.8591 4.86   4.8607 4.8609 4.8645 4.8648 4.8686 4.8689 4.869  4.8698
  4.8701 4.8713 4.8714 4.8719 4.8727 4.8732 4.8739 4.874  4.8743 4.8764
@@ -5534,7 +5534,7 @@
   597813  481206  295935  281168  488205  508267  495822 1174971  897048
   905565  688370  944364  723177 1011820  710687  552594 1062923  169323
  1127940  797774  768806  565208    1417  749724  152510 1005825  359899
- 1079010  927734  340173  620957 1132649  716135  730910  163462  614049
+ 1079010  927734  340173 1132649  620957  716135  730910  163462  614049
   523255  132514  146118  959863 1030272  429550  954345 1141951  808895
  1066188  813288 1122246  592669    5022 1056924 1138783   95713 1051872
   145145]</t>
@@ -5860,7 +5860,7 @@
           <t>[5.8866 5.8879 5.9125 5.9209 5.9278 5.9304 5.9365 5.9539 5.9547 5.957
  5.9657 5.9658 5.9667 5.9779 5.9809 5.9818 5.9824 5.9833 5.9889 5.9898
  5.9926 5.9927 5.9932 5.9934 6.0003 6.0015 6.0016 6.007  6.0087 6.0093
- 6.0109 6.0133 6.0149 6.015  6.0169 6.0174 6.0235 6.0242 6.0295 6.03
+ 6.0109 6.0133 6.0149 6.015  6.0169 6.0174 6.0235 6.0242 6.0296 6.03
  6.0327 6.0345 6.0352 6.0365 6.0366 6.037  6.0376 6.0417 6.0426 6.0441
  6.045  6.0461 6.0473 6.0491 6.0499 6.0525 6.0545 6.0549 6.0558 6.0558
  6.0563 6.0568 6.0569 6.057  6.0576 6.0577 6.0588 6.059  6.0603 6.0609
@@ -6907,7 +6907,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[5.3215 5.3651 5.4748 5.5108 5.5191 5.5209 5.5259 5.5304 5.5347 5.5389
+          <t>[5.3215 5.3651 5.4748 5.5108 5.5191 5.5209 5.5258 5.5304 5.5347 5.5389
  5.5415 5.5448 5.5489 5.5584 5.5616 5.5639 5.5688 5.575  5.5823 5.5839
  5.5873 5.5906 5.596  5.5963 5.6009 5.6055 5.6068 5.6069 5.6179 5.619
  5.6217 5.6221 5.6262 5.6272 5.6288 5.6327 5.6328 5.6359 5.6455 5.6498
@@ -7016,10 +7016,10 @@
  2.8939 2.9062 2.9087 2.9411 2.9463 2.9471 2.9566 2.9623 2.966  2.9838
  2.9859 2.9887 2.9934 2.9942 2.9975 2.9988 3.0127 3.0244 3.0358 3.039
  3.0485 3.0495 3.0553 3.0571 3.0604 3.0641 3.0673 3.0682 3.0704 3.0738
- 3.0764 3.0802 3.0817 3.0821 3.085  3.0857 3.0872 3.0938 3.0953 3.0985
+ 3.0764 3.0802 3.0817 3.0821 3.085  3.0857 3.0871 3.0938 3.0953 3.0985
  3.1002 3.1036 3.1096 3.1101 3.1119 3.112  3.1134 3.1163 3.1171 3.1202
  3.1224 3.1243 3.1272 3.1331 3.134  3.1354 3.1373 3.1378 3.1381 3.1412
- 3.1447 3.1483 3.149  3.1508 3.1523 3.1533 3.1542 3.1544 3.1561 3.1567
+ 3.1447 3.1483 3.149  3.1508 3.1523 3.1533 3.1542 3.1544 3.1561 3.1566
  3.1618 3.1627 3.1635 3.1645 3.1693 3.1703 3.1708 3.1715 3.1717 3.174
  3.1764 3.1794 3.1801 3.184  3.1861 3.1864 3.1882 3.1889 3.1893 3.1895]</t>
         </is>
@@ -7050,7 +7050,7 @@
           <t>[7.4959 7.5415 7.5851 7.7672 7.7837 7.7982 7.7999 7.8055 7.8099 7.8111
  7.8283 7.8352 7.8389 7.8407 7.844  7.8564 7.8662 7.8724 7.8784 7.8806
  7.8837 7.8878 7.8921 7.8925 7.8933 7.8938 7.9003 7.9047 7.9075 7.9132
- 7.9144 7.9163 7.9166 7.9171 7.9209 7.9332 7.9356 7.9373 7.9379 7.9433
+ 7.9144 7.9163 7.9166 7.9171 7.9209 7.9331 7.9356 7.9373 7.9379 7.9433
  7.9471 7.9487 7.9494 7.9502 7.9503 7.952  7.9545 7.9551 7.9551 7.9554
  7.9594 7.9603 7.9605 7.9689 7.9738 7.9753 7.9804 7.9815 7.983  7.9872
  7.9879 7.9885 7.9888 7.9931 7.9934 8.0016 8.0034 8.0067 8.0074 8.0086
@@ -7156,7 +7156,7 @@
  5.9251 5.9273 5.9297 5.9317 5.9343 5.9359 5.9374 5.9393 5.9433 5.9442
  5.945  5.948  5.9494 5.9501 5.9502 5.9534 5.9539 5.9547 5.9568 5.957
  5.9572 5.9574 5.9578 5.9579 5.9586 5.9587 5.9597 5.9598 5.9599 5.9599
- 5.96   5.9606 5.9607 5.9621 5.9624 5.9629 5.9633 5.9638 5.9642 5.9643
+ 5.96   5.9606 5.9608 5.9621 5.9624 5.9629 5.9633 5.9638 5.9642 5.9643
  5.9644 5.9644 5.9647 5.9649 5.9649 5.9652 5.9656 5.9658 5.9661 5.9661
  5.9663 5.9668 5.9673 5.9683 5.9685 5.9685 5.9685 5.9685 5.9686 5.9686
  5.9689 5.9692 5.9694 5.9698 5.97   5.9701 5.9704 5.9721 5.9722 5.9726
@@ -8138,7 +8138,7 @@
  5.7244 5.7276 5.73   5.7305 5.7324 5.737  5.7373 5.7394 5.7412 5.7427
  5.744  5.7442 5.7443 5.7462 5.7494 5.7517 5.7532 5.7532 5.754  5.7541
  5.7568 5.7571 5.7572 5.7572 5.7581 5.7585 5.7586 5.7604 5.7608 5.7616
- 5.7618 5.7626 5.7626 5.7636 5.764  5.7649 5.7665 5.7676 5.7682 5.7702
+ 5.7618 5.7626 5.7626 5.7636 5.764  5.7649 5.7665 5.7677 5.7682 5.7702
  5.7702 5.7716 5.7719 5.7727 5.7731 5.7733 5.7743 5.7764 5.7767 5.7773
  5.7779 5.778  5.7787 5.7803 5.7815 5.7815 5.7826 5.7838 5.784  5.7846
  5.7855 5.7859 5.7863 5.7866 5.7888 5.7893 5.791  5.791  5.7924 5.7931]</t>
@@ -9289,7 +9289,7 @@
         <is>
           <t>[7.3435 7.5794 7.5993 7.6425 7.6478 7.6552 7.6559 7.6778 7.6934 7.6941
  7.698  7.7026 7.7068 7.7134 7.7202 7.7202 7.7217 7.7247 7.7357 7.7387
- 7.7442 7.7476 7.7542 7.7546 7.7568 7.7574 7.7576 7.7582 7.7585 7.7625
+ 7.7442 7.7476 7.7542 7.7546 7.7568 7.7574 7.7577 7.7582 7.7585 7.7625
  7.7663 7.7666 7.7684 7.7694 7.7702 7.7703 7.7722 7.773  7.7768 7.7792
  7.7803 7.7805 7.7812 7.7815 7.7816 7.7831 7.7833 7.7836 7.784  7.7861
  7.7871 7.7878 7.7885 7.7897 7.7912 7.7914 7.7946 7.7957 7.7962 7.7964
@@ -9456,7 +9456,7 @@
   961964  793274  560259   28087 1041155  534798  433398  749396  620957
   125467 1167776  240732  618189  528314  543784 1131359  923943  129339
  1119031  187921  372368 1073158 1047912  669134  281419   19387 1051872
-   18499  763515  229951 1018036  630674  716135   62444  499071  723011
+  763515   18499  229951 1018036  630674  716135   62444  499071  723011
   558043]</t>
         </is>
       </c>
@@ -9505,7 +9505,7 @@
  6.2959 6.2973 6.2978 6.2982 6.2997 6.3004 6.3005 6.3009 6.3014 6.3014
  6.3017 6.3019 6.3031 6.3051 6.3057 6.3057 6.3063 6.3079 6.3083 6.3086
  6.309  6.3114 6.3142 6.3146 6.3151 6.3158 6.3158 6.3158 6.3168 6.3171
- 6.3188 6.3196 6.3201 6.3216 6.3218 6.3219 6.3227 6.3234 6.3241 6.3251
+ 6.3188 6.3196 6.3202 6.3216 6.3218 6.3219 6.3227 6.3234 6.3241 6.3251
  6.3251 6.3251 6.3252 6.3253 6.3256 6.3262 6.3265 6.3271 6.3275 6.3283]</t>
         </is>
       </c>
@@ -9956,7 +9956,7 @@
  5.2361 5.2435 5.2441 5.2499 5.2522 5.2532 5.2603 5.2625 5.2627 5.2664
  5.2684 5.2688 5.2688 5.269  5.2701 5.2703 5.2719 5.2721 5.2723 5.2727
  5.2739 5.2754 5.2754 5.2772 5.2788 5.2806 5.2817 5.2818 5.2843 5.2849
- 5.2857 5.286  5.2869 5.288  5.2903 5.2907 5.2911 5.2917 5.2927 5.2934
+ 5.2857 5.286  5.2869 5.288  5.2903 5.2907 5.2911 5.2918 5.2927 5.2934
  5.2949 5.2958 5.2976 5.298  5.2989 5.2991 5.2995 5.3034 5.3038 5.3055
  5.3058 5.3061 5.3066 5.3077 5.3086 5.3095 5.3102 5.3103 5.3105 5.3105
  5.3116 5.3117 5.3119 5.3124 5.3141 5.3145 5.316  5.3166 5.3176 5.3183
@@ -10135,7 +10135,7 @@
  4.9452 4.9458 4.947  4.9476 4.949  4.9498 4.9524 4.9538 4.955  4.9568
  4.9578 4.9589 4.9593 4.9603 4.9615 4.9626 4.9649 4.9654 4.9658 4.9692
  4.9695 4.9697 4.97   4.9701 4.9706 4.972  4.9735 4.9751 4.9769 4.9775
- 4.9779 4.9781 4.9793 4.9799 4.9802 4.9802 4.9806 4.9816 4.9825 4.9837
+ 4.9779 4.9781 4.9794 4.9799 4.9802 4.9802 4.9806 4.9816 4.9825 4.9837
  4.9852 4.9854 4.9862 4.9888 4.9889 4.9892 4.9898 4.9898 4.9912 4.9929]</t>
         </is>
       </c>
@@ -10973,7 +10973,7 @@
  7.0401 7.0408 7.0708 7.0804 7.0961 7.1123 7.1149 7.1234 7.1609 7.1676
  7.1678 7.1679 7.1796 7.1874 7.189  7.1946 7.1961 7.1967 7.2004 7.2044
  7.2049 7.2089 7.2122 7.2148 7.2207 7.2241 7.2281 7.2306 7.2311 7.234
- 7.236  7.2416 7.2479 7.2483 7.249  7.2503 7.2504 7.2506 7.2636 7.2655
+ 7.236  7.2416 7.2478 7.2483 7.249  7.2503 7.2504 7.2506 7.2636 7.2655
  7.2657 7.2675 7.2691 7.2711 7.2791 7.2814 7.2816 7.2818 7.2824 7.2824
  7.2825 7.2839 7.2857 7.2871 7.2885 7.2885 7.2888 7.2891 7.2892 7.2904
  7.2909 7.2914 7.2923 7.293  7.2933 7.2933 7.2937 7.2945 7.2946 7.297 ]</t>
@@ -11006,7 +11006,7 @@
  7.6854 7.6878 7.6886 7.6986 7.7001 7.7017 7.7065 7.7141 7.7155 7.7159
  7.7168 7.7191 7.7195 7.7282 7.7312 7.7333 7.7343 7.7355 7.7389 7.7414
  7.7439 7.744  7.745  7.7464 7.749  7.7501 7.7534 7.7556 7.7562 7.7579
- 7.7588 7.7593 7.7596 7.7598 7.7629 7.7646 7.7651 7.766  7.7661 7.7661
+ 7.7588 7.7593 7.7596 7.7598 7.7628 7.7646 7.7651 7.766  7.7661 7.7661
  7.7681 7.7717 7.7718 7.7732 7.7746 7.7748 7.7751 7.7758 7.7762 7.7765
  7.7765 7.7769 7.7771 7.7796 7.7801 7.7809 7.7811 7.7834 7.7836 7.7843
  7.7852 7.7856 7.7859 7.787  7.7876 7.7878 7.7894 7.7905 7.7913 7.7919
@@ -11458,11 +11458,11 @@
       <c r="C316" t="inlineStr">
         <is>
           <t>[3.009  3.1986 3.3054 3.4878 3.5367 3.6308 3.6404 3.6557 3.6595 3.6634
- 3.6784 3.6848 3.6903 3.6916 3.6985 3.7012 3.7052 3.7098 3.7116 3.7146
+ 3.6783 3.6848 3.6903 3.6916 3.6985 3.7012 3.7052 3.7098 3.7116 3.7146
  3.7177 3.7178 3.724  3.7246 3.7247 3.7318 3.732  3.7321 3.739  3.7401
  3.7414 3.7417 3.7453 3.7473 3.7507 3.7515 3.7533 3.7542 3.7566 3.7633
  3.7642 3.7644 3.7667 3.7682 3.7722 3.7725 3.7738 3.7754 3.7762 3.7762
- 3.7765 3.7768 3.778  3.7785 3.7826 3.7838 3.7846 3.7851 3.7856 3.7863
+ 3.7765 3.7767 3.778  3.7785 3.7826 3.7838 3.7846 3.7851 3.7856 3.7863
  3.7885 3.7897 3.7903 3.7907 3.793  3.7941 3.7941 3.7944 3.7945 3.7977
  3.7988 3.7995 3.7997 3.7999 3.801  3.8013 3.8016 3.8022 3.8042 3.8048
  3.8051 3.8065 3.8072 3.8093 3.8095 3.8102 3.8119 3.8126 3.814  3.8146
@@ -12235,7 +12235,7 @@
  5.8655 5.8674 5.8676 5.8679 5.8686 5.8694 5.8704 5.8765 5.8766 5.8775
  5.8781 5.8817 5.8859 5.8903 5.8912 5.8914 5.8916 5.8932 5.8952 5.8975
  5.8977 5.9028 5.9044 5.9044 5.9064 5.9074 5.9075 5.9084 5.9115 5.9118
- 5.914  5.9171 5.9172 5.9174 5.9181 5.9191 5.9207 5.9215 5.9232 5.9266
+ 5.914  5.9172 5.9172 5.9174 5.9181 5.9191 5.9207 5.9215 5.9232 5.9266
  5.9275 5.9297 5.9304 5.9317 5.9327 5.9328 5.933  5.9346 5.9354 5.9393]</t>
         </is>
       </c>
@@ -12411,7 +12411,7 @@
  8.2774 8.2802 8.2805 8.281  8.2829 8.2832 8.2841 8.2863 8.2879 8.2884
  8.291  8.2946 8.295  8.2954 8.2958 8.2964 8.2977 8.2978 8.2993 8.2993
  8.3004 8.3011 8.3012 8.3018 8.302  8.3036 8.304  8.3047 8.3081 8.3091
- 8.31   8.3103 8.3106 8.3112 8.3119 8.3122 8.313  8.3131 8.3149 8.318 ]</t>
+ 8.31   8.3102 8.3106 8.3112 8.3119 8.3122 8.313  8.3131 8.3149 8.318 ]</t>
         </is>
       </c>
     </row>
@@ -12997,7 +12997,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>[6.2203 6.2538 6.2565 6.2597 6.2848 6.303  6.3086 6.3136 6.3168 6.3197
+          <t>[6.2203 6.2538 6.2565 6.2597 6.2848 6.3031 6.3086 6.3136 6.3168 6.3197
  6.3227 6.3296 6.3314 6.3327 6.3347 6.3351 6.3362 6.3365 6.3376 6.3391
  6.3394 6.3399 6.3408 6.3422 6.343  6.3446 6.3449 6.3454 6.3468 6.3479
  6.3484 6.3507 6.3518 6.3536 6.3554 6.362  6.3664 6.3676 6.3693 6.3703
@@ -14788,7 +14788,7 @@
  6.1053 6.1055 6.108  6.1084 6.1091 6.1094 6.1102 6.1104 6.1106 6.1109
  6.1111 6.1112 6.1124 6.1131 6.1133 6.1145 6.1147 6.1153 6.1177 6.1186
  6.119  6.1198 6.1251 6.1252 6.1253 6.1261 6.1266 6.1296 6.1306 6.1312
- 6.1317 6.1327 6.1328 6.133  6.1334 6.1371 6.1374 6.1379 6.1381 6.1381
+ 6.1317 6.1327 6.1328 6.133  6.1334 6.1371 6.1374 6.138  6.1381 6.1381
  6.1382 6.1388 6.1392 6.1393 6.1395 6.1396 6.1401 6.1402 6.1408 6.1408
  6.1413 6.1416 6.1424 6.1426 6.1431 6.1432 6.144  6.1447 6.1452 6.1464
  6.1464 6.148  6.1484 6.1484 6.1496 6.1505 6.1507 6.1511 6.1511 6.1514]</t>
@@ -15141,7 +15141,7 @@
  5.4197 5.4199 5.4199 5.4199 5.4221 5.4221 5.4238 5.4243 5.4252 5.426
  5.4271 5.4306 5.4309 5.4321 5.4327 5.4336 5.4338 5.4346 5.4348 5.4349
  5.4353 5.4354 5.436  5.4369 5.4385 5.4385 5.4393 5.4393 5.4396 5.4411
- 5.4425 5.4426 5.4427 5.4448 5.4458 5.446  5.4463 5.4469 5.4483 5.4484]</t>
+ 5.4424 5.4426 5.4427 5.4448 5.4458 5.446  5.4463 5.4469 5.4483 5.4484]</t>
         </is>
       </c>
     </row>
@@ -15561,7 +15561,7 @@
  7.3815 7.3829 7.3836 7.3856 7.3862 7.3862 7.3877 7.3884 7.3891 7.3892
  7.3895 7.391  7.3917 7.3921 7.3934 7.3947 7.3949 7.3949 7.3962 7.3978
  7.3982 7.3994 7.4016 7.4024 7.4027 7.4032 7.4033 7.4035 7.4039 7.404
- 7.4045 7.4045 7.4047 7.4059 7.406  7.406  7.4062 7.4064 7.4067 7.4068]</t>
+ 7.4045 7.4045 7.4047 7.4058 7.406  7.406  7.4062 7.4064 7.4067 7.4068]</t>
         </is>
       </c>
     </row>
@@ -16602,7 +16602,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>[6.2021 6.8078 6.8619 7.3618 7.3689 7.4512 7.4766 7.5181 7.5187 7.5259
+          <t>[6.2021 6.8078 6.862  7.3618 7.3689 7.4512 7.4766 7.5181 7.5187 7.5259
  7.5297 7.5323 7.5366 7.5475 7.553  7.5555 7.5566 7.557  7.5595 7.5822
  7.5858 7.5868 7.5908 7.5908 7.5913 7.592  7.5952 7.5965 7.5969 7.5996
  7.603  7.6033 7.6069 7.609  7.6136 7.6141 7.617  7.6177 7.6182 7.6216
@@ -17232,7 +17232,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>[6.2789 6.3282 6.3361 6.3483 6.3584 6.3695 6.3749 6.3755 6.3816 6.3836
+          <t>[6.2789 6.3282 6.3361 6.3483 6.3584 6.3696 6.3749 6.3755 6.3816 6.3836
  6.3914 6.3996 6.4005 6.4024 6.4091 6.4097 6.4105 6.4156 6.4157 6.4211
  6.4213 6.4258 6.4308 6.4315 6.4331 6.4333 6.4342 6.4391 6.441  6.4431
  6.4444 6.4482 6.4487 6.4487 6.449  6.4495 6.45   6.4533 6.455  6.4553
@@ -17415,7 +17415,7 @@
  5.2724 5.2775 5.2794 5.2842 5.2977 5.2991 5.3084 5.3277 5.3281 5.33
  5.3321 5.342  5.3464 5.3477 5.3485 5.3523 5.3682 5.3754 5.379  5.3793
  5.3863 5.3961 5.4064 5.4307 5.4385 5.4388 5.4451 5.4464 5.4716 5.4808
- 5.4816 5.4823 5.4845 5.4867 5.4872 5.4982 5.4985 5.5021 5.504  5.5076
+ 5.4816 5.4823 5.4845 5.4867 5.4872 5.4982 5.4985 5.5021 5.5041 5.5076
  5.5123 5.5228 5.5294 5.5429 5.5459 5.548  5.5492 5.5508 5.5511 5.5521]</t>
         </is>
       </c>
@@ -17447,7 +17447,7 @@
  6.8844 6.8853 6.8883 6.8886 6.8912 6.8935 6.8941 6.8946 6.8947 6.8949
  6.8963 6.8977 6.8998 6.9017 6.9022 6.9022 6.9031 6.9042 6.9062 6.9068
  6.9078 6.9087 6.9099 6.9108 6.9119 6.9124 6.9127 6.9162 6.9163 6.9169
- 6.9186 6.9191 6.9192 6.9197 6.92   6.9228 6.9237 6.9258 6.9287 6.9297
+ 6.9186 6.9191 6.9192 6.9196 6.92   6.9228 6.9237 6.9258 6.9287 6.9297
  6.9299 6.9299 6.9308 6.9329 6.9333 6.9338 6.9344 6.9348 6.9348 6.9353
  6.9354 6.9355 6.9361 6.9364 6.9376 6.9378 6.9384 6.9395 6.9401 6.9401
  6.9413 6.9445 6.9451 6.946  6.9461 6.9469 6.9471 6.9481 6.9482 6.9486
@@ -17785,7 +17785,7 @@
    35173 1091322  265817 1097907  761305  973053  588857  680030  426727
   886745  293051  315561  628632  196383  911157  502527  237508   13094
   990363  190360  620308  928118 1120137  422340  478384  839489  954460
-  294932  550986  241788 1171954 1069078    4843  476084  298582  839169
+  294932  550986 1171954  241788 1069078    4843  476084  298582  839169
   310160  484025  993395  755667  920829  504468  360936  436371  317488
   881269]</t>
         </is>
@@ -18046,7 +18046,7 @@
  6.142  6.1424 6.1428 6.1432 6.1433 6.1434 6.1438 6.1441 6.1441 6.145
  6.1458 6.146  6.1462 6.1473 6.1483 6.1484 6.1495 6.1495 6.1495 6.1497
  6.1505 6.1512 6.1516 6.1519 6.1521 6.1522 6.1525 6.1531 6.1536 6.1538
- 6.154  6.1543 6.1543 6.1546 6.155  6.1551 6.1557 6.1565 6.1569 6.1569]</t>
+ 6.1539 6.1543 6.1543 6.1546 6.155  6.1551 6.1557 6.1565 6.1569 6.1569]</t>
         </is>
       </c>
     </row>
@@ -18115,7 +18115,7 @@
  5.469  5.4693 5.4702 5.4704 5.4711 5.4712 5.4712 5.4715 5.4717 5.472
  5.4751 5.4753 5.4756 5.4769 5.4773 5.4785 5.4791 5.481  5.481  5.4815
  5.4828 5.4838 5.4842 5.4845 5.4845 5.4846 5.4846 5.4849 5.4855 5.4858
- 5.4866 5.4876 5.4888 5.4888 5.4888 5.4889 5.4903 5.491  5.4911 5.4911
+ 5.4866 5.4876 5.4887 5.4888 5.4888 5.4889 5.4903 5.491  5.4911 5.4911
  5.4912 5.4917 5.4922 5.4922 5.4926 5.4939 5.494  5.4941 5.4942 5.4942]</t>
         </is>
       </c>
@@ -18634,7 +18634,7 @@
         <is>
           <t>[4.3975 4.453  4.4946 4.5129 4.518  4.5219 4.5383 4.539  4.5516 4.5529
  4.5559 4.5562 4.5609 4.5686 4.5693 4.5762 4.5774 4.5784 4.5787 4.5829
- 4.59   4.5903 4.5943 4.5948 4.5962 4.5963 4.5974 4.5994 4.5995 4.6003
+ 4.59   4.5903 4.5943 4.5948 4.5963 4.5963 4.5974 4.5994 4.5995 4.6003
  4.6053 4.6054 4.6054 4.6104 4.6106 4.6125 4.6126 4.6141 4.6146 4.6157
  4.6166 4.6168 4.6203 4.621  4.6211 4.6222 4.623  4.6238 4.6256 4.6285
  4.6291 4.6299 4.6304 4.6304 4.6306 4.6308 4.6314 4.6329 4.6336 4.6342
@@ -18831,7 +18831,7 @@
     5581 1042460  292551  615818  763515  507390  640659 1027688 1004755
    70854  372097  310855  187230  140706  930999  515336   77233  663725
    90994 1121509  816343  739860 1109517  593249  100285  641083    1366
-  378486  946691 1030491  762146  380138  282976 1047684  472580  606432
+  378486  946691 1030491  762146  282976  380138 1047684  472580  606432
   125651  705302 1066274  746913 1063261   57812  735021  472724  826480
   248834  173287   44575  343675  950658  111651 1000891  228677  905500
   794214  542367  710036  979655  387362  687261  150440  944364  835704
@@ -18942,7 +18942,7 @@
   167656  691925    8803  121927  389455  221127  565546  498644  776312
   788995  400073  659439 1006920 1010480 1164372  998354 1132186 1097110
   154359  585927 1036616  787272  151377  529429  524666  243665  947795
-  884589]</t>
+ 1109794]</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -19304,7 +19304,7 @@
  6.1411 6.1426 6.145  6.1499 6.1509 6.1536 6.1538 6.1567 6.1577 6.1644
  6.1647 6.1656 6.1718 6.1722 6.1735 6.1737 6.1767 6.1779 6.1811 6.1811
  6.1858 6.1882 6.189  6.1894 6.1898 6.1927 6.1933 6.1937 6.1954 6.1956
- 6.1957 6.197  6.1972 6.1976 6.1979 6.1989 6.1989 6.1992 6.1993 6.2
+ 6.1957 6.197  6.1972 6.1976 6.1979 6.1989 6.1989 6.1993 6.1993 6.2
  6.2002 6.2003 6.2004 6.2007 6.2009 6.201  6.2011 6.2015 6.2024 6.2031
  6.2031 6.2032 6.2039 6.2043 6.2047 6.2049 6.2052 6.2062 6.2066 6.2067]</t>
         </is>
@@ -19965,7 +19965,7 @@
           <t>[5.4569 5.466  5.4955 5.5011 5.5125 5.5152 5.5158 5.5188 5.5283 5.5313
  5.5327 5.539  5.5397 5.5413 5.5437 5.5475 5.5477 5.5482 5.5608 5.5629
  5.566  5.566  5.5661 5.5673 5.5717 5.5723 5.5754 5.5801 5.5819 5.5848
- 5.5862 5.59   5.5913 5.5914 5.5925 5.5932 5.5957 5.5968 5.5997 5.6019
+ 5.5862 5.59   5.5913 5.5914 5.5925 5.5932 5.5957 5.5968 5.5996 5.6019
  5.6049 5.605  5.606  5.6066 5.6068 5.6069 5.607  5.607  5.6073 5.6073
  5.6074 5.6093 5.6095 5.6097 5.611  5.6116 5.6123 5.613  5.6132 5.6139
  5.6143 5.6143 5.6151 5.6159 5.617  5.6175 5.6191 5.6228 5.6229 5.6229
@@ -20172,7 +20172,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>[5.303  5.3826 5.3995 5.4068 5.4096 5.4199 5.4232 5.4265 5.4277 5.4361
+          <t>[5.303  5.3826 5.3995 5.4068 5.4096 5.4199 5.4231 5.4265 5.4277 5.4361
  5.4389 5.4414 5.443  5.4433 5.4514 5.4679 5.4698 5.4746 5.4775 5.4793
  5.4841 5.4856 5.4859 5.4906 5.4914 5.4942 5.4983 5.4995 5.5025 5.503
  5.5084 5.5128 5.5139 5.5147 5.5172 5.5181 5.519  5.5202 5.5234 5.525
@@ -20559,7 +20559,7 @@
         <is>
           <t>[4.9917 5.0197 5.031  5.0686 5.0892 5.0914 5.1008 5.102  5.12   5.1413
  5.1607 5.1839 5.186  5.1886 5.1953 5.2011 5.2039 5.2089 5.2093 5.2214
- 5.2216 5.2224 5.2279 5.2281 5.2302 5.2316 5.2326 5.2374 5.2414 5.2432
+ 5.2216 5.2224 5.2279 5.2281 5.2302 5.2316 5.2325 5.2374 5.2414 5.2432
  5.2456 5.2515 5.2521 5.253  5.254  5.2578 5.2583 5.2593 5.2617 5.2683
  5.2713 5.2764 5.283  5.2838 5.2845 5.2851 5.2861 5.2897 5.2901 5.2932
  5.2954 5.2957 5.2998 5.3008 5.3041 5.3055 5.3079 5.3099 5.3137 5.3143
@@ -22627,7 +22627,7 @@
  5.1112 5.1115 5.1122 5.1126 5.1139 5.1175 5.1185 5.1253 5.1284 5.1297
  5.1323 5.1345 5.1356 5.137  5.1377 5.1391 5.1405 5.1416 5.1418 5.1451
  5.1463 5.1482 5.1489 5.1496 5.1498 5.1509 5.1509 5.1537 5.1561 5.1564
- 5.1566 5.1602 5.1612 5.1618 5.1621 5.1633 5.1634 5.1638 5.1641 5.1649
+ 5.1567 5.1602 5.1612 5.1618 5.1621 5.1633 5.1634 5.1638 5.1641 5.1649
  5.1659 5.1662 5.1691 5.1711 5.1719 5.1723 5.1724 5.1726 5.1736 5.1736
  5.1752 5.1763 5.1764 5.1765 5.1775 5.1791 5.1801 5.1802 5.1814 5.1824
  5.1831 5.1838 5.1842 5.1847 5.186  5.1866 5.1868 5.1875 5.1875 5.1881
@@ -23392,7 +23392,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>[6.0018 6.2901 6.2945 6.2958 6.3296 6.3556 6.3631 6.4187 6.491  6.525
+          <t>[6.0018 6.2901 6.2945 6.2958 6.3296 6.3556 6.3631 6.4187 6.491  6.5251
  6.538  6.5433 6.5484 6.5824 6.6204 6.6225 6.6251 6.6341 6.6349 6.6377
  6.647  6.6813 6.6836 6.6852 6.7006 6.7008 6.7067 6.7116 6.7225 6.7265
  6.7279 6.7363 6.7381 6.7429 6.7495 6.7521 6.7535 6.757  6.7576 6.7578
@@ -23815,7 +23815,7 @@
           <t>[7.2409 7.2788 7.2905 7.2998 7.3039 7.3057 7.3161 7.3185 7.3207 7.3335
  7.3337 7.3347 7.3364 7.3464 7.3478 7.3598 7.3612 7.3618 7.3638 7.3649
  7.3661 7.3662 7.3665 7.3726 7.3743 7.3745 7.3756 7.3793 7.3804 7.3833
- 7.3866 7.3884 7.3935 7.3955 7.3977 7.3998 7.3999 7.4035 7.411  7.4112
+ 7.3866 7.3884 7.3935 7.3955 7.3977 7.3998 7.3999 7.4035 7.411  7.4113
  7.4118 7.4134 7.4135 7.4153 7.416  7.4161 7.4168 7.4197 7.4213 7.4227
  7.4234 7.4234 7.4245 7.4249 7.4263 7.4266 7.4267 7.428  7.4295 7.4303
  7.4304 7.4307 7.4308 7.4311 7.4328 7.4343 7.4356 7.4358 7.4361 7.4365
@@ -23925,7 +23925,7 @@
  5.549  5.5496 5.5502 5.5532 5.5532 5.5535 5.5552 5.556  5.5593 5.56
  5.5606 5.565  5.5661 5.5661 5.5672 5.5679 5.569  5.5693 5.5717 5.5723
  5.5735 5.5748 5.5767 5.5785 5.5785 5.5802 5.5821 5.5828 5.5834 5.5861
- 5.5862 5.5872 5.5872 5.5878 5.5897 5.5899 5.59   5.5902 5.5903 5.591
+ 5.5862 5.5872 5.5872 5.5878 5.5897 5.5899 5.5899 5.5902 5.5903 5.591
  5.5911 5.592  5.5924 5.5932 5.5944 5.5947 5.5954 5.5957 5.5958 5.5963]</t>
         </is>
       </c>
@@ -24085,7 +24085,7 @@
   128249  265663  741506  824873 1129531 1078987  329474   68573   30370
   339612  980463  680916  105530  296814  930999 1173250  331449  304575
   359006  643883  790776  284643  861501  274476   11145  766234  868571
-  502055 1001290  342097  309464   20704  485212  756545  455463  936873
+  502055 1001290  342097  309464   20704  756545  485212  455463  936873
   801520 1037226 1088474  901664  601063  444158  753043  807080  617195
   957487]</t>
         </is>
@@ -24410,7 +24410,7 @@
           <t>[8.6713 8.7671 8.8131 9.0139 9.094  9.098  9.0989 9.1328 9.1429 9.1489
  9.1492 9.1498 9.1604 9.166  9.1684 9.1759 9.1777 9.1797 9.1797 9.1881
  9.1911 9.1939 9.1973 9.2023 9.2119 9.2132 9.2132 9.2137 9.2232 9.2276
- 9.234  9.2348 9.2355 9.2388 9.2402 9.2448 9.2449 9.2458 9.2464 9.2468
+ 9.234  9.2349 9.2355 9.2388 9.2402 9.2448 9.2449 9.2458 9.2464 9.2468
  9.2468 9.2471 9.2473 9.2481 9.2518 9.2524 9.2552 9.2552 9.2557 9.2559
  9.2562 9.2584 9.2589 9.259  9.26   9.2659 9.267  9.2686 9.2696 9.2704
  9.2713 9.2719 9.2721 9.2745 9.2745 9.2753 9.2779 9.2784 9.2815 9.2821
@@ -25066,7 +25066,7 @@
   716135  824821  651233 1014445  866068 1174947 1066843  730910  620957
   766532  337588 1051872  542367   90994  998354  531576  297562  151109
   389455  635862  536586 1119239 1007434 1125991  524666 1031943  944364
-  447452  834977 1105644  904096  263568 1071253  367432 1132186 1063261
+  834977  447452 1105644  904096  263568 1071253  367432 1132186 1063261
    80785]</t>
         </is>
       </c>
@@ -25466,7 +25466,7 @@
  6.2768 6.2775 6.2788 6.2789 6.2826 6.2839 6.2847 6.2865 6.2875 6.2885
  6.2892 6.2904 6.2907 6.2907 6.2915 6.2941 6.2963 6.2992 6.3004 6.3013
  6.3017 6.3024 6.3025 6.3031 6.3035 6.3036 6.3037 6.3042 6.3049 6.3067
- 6.3068 6.307  6.3095 6.3125 6.3132 6.3143 6.3154 6.3159 6.3174 6.318 ]</t>
+ 6.3068 6.307  6.3095 6.3125 6.3132 6.3143 6.3154 6.3158 6.3174 6.318 ]</t>
         </is>
       </c>
     </row>
@@ -25850,7 +25850,7 @@
  7.0603 7.0604 7.0626 7.0627 7.0628 7.0653 7.0655 7.0679 7.0701 7.0716
  7.0719 7.0722 7.0723 7.0726 7.0734 7.0735 7.0737 7.0765 7.0772 7.0774
  7.0776 7.0776 7.078  7.0789 7.079  7.0797 7.0802 7.0809 7.081  7.0813
- 7.0814 7.0816 7.0817 7.0819 7.0827 7.0828 7.0836 7.0839 7.0843 7.0846
+ 7.0814 7.0816 7.0817 7.0818 7.0827 7.0828 7.0836 7.0839 7.0843 7.0846
  7.0853 7.0857 7.0858 7.0865 7.0865 7.087  7.087  7.087  7.0872 7.0874]</t>
         </is>
       </c>
@@ -25920,7 +25920,7 @@
  7.3972 7.398  7.3986 7.3997 7.4004 7.4013 7.4017 7.4026 7.4029 7.404
  7.4041 7.4041 7.4047 7.4052 7.407  7.4072 7.4079 7.4086 7.4101 7.4105
  7.4105 7.4107 7.4126 7.4131 7.4167 7.4172 7.4182 7.4215 7.4219 7.4249
- 7.425  7.4251 7.4251 7.4284 7.4285 7.4289 7.4293 7.4299 7.43   7.4307
+ 7.425  7.4251 7.4251 7.4283 7.4285 7.4289 7.4293 7.4299 7.43   7.4307
  7.4333 7.4342 7.4354 7.4356 7.4356 7.4365 7.437  7.4371 7.4377 7.4392]</t>
         </is>
       </c>
@@ -25950,7 +25950,7 @@
           <t>[5.6273 5.6363 5.6509 5.6912 5.7331 5.7349 5.7398 5.7762 5.78   5.7886
  5.7893 5.7946 5.7974 5.8041 5.8077 5.8112 5.8121 5.8168 5.8171 5.8174
  5.8191 5.8196 5.8208 5.8211 5.8217 5.8266 5.8292 5.8297 5.8318 5.8346
- 5.8352 5.8368 5.8373 5.8376 5.8387 5.8399 5.8401 5.8411 5.8412 5.8425
+ 5.8352 5.8368 5.8373 5.8376 5.8387 5.8399 5.8401 5.8411 5.8411 5.8425
  5.849  5.8498 5.8526 5.8548 5.8566 5.8568 5.8581 5.8614 5.8618 5.8619
  5.8665 5.8683 5.8701 5.871  5.8716 5.8731 5.8732 5.8759 5.8761 5.8768
  5.8782 5.879  5.8801 5.8812 5.8815 5.8818 5.8827 5.8831 5.8842 5.8855
@@ -26057,7 +26057,7 @@
  5.1891 5.1893 5.1921 5.1939 5.2007 5.2023 5.2055 5.2063 5.2145 5.2177
  5.2205 5.2206 5.2281 5.2285 5.2288 5.2325 5.2327 5.2344 5.2349 5.2377
  5.2381 5.2396 5.2415 5.2428 5.2439 5.2449 5.2462 5.2467 5.2472 5.2477
- 5.2484 5.2485 5.2496 5.2513 5.2521 5.2531 5.2551 5.2556 5.2564 5.2564
+ 5.2484 5.2485 5.2496 5.2513 5.2521 5.2531 5.2551 5.2556 5.2563 5.2564
  5.2581 5.2586 5.2594 5.2604 5.2604 5.2605 5.2611 5.2616 5.262  5.2622
  5.2624 5.2635 5.2709 5.2713 5.2724 5.2727 5.2733 5.2734 5.2741 5.2753
  5.2764 5.277  5.2776 5.2784 5.2789 5.2817 5.2822 5.2865 5.2875 5.288
@@ -26336,7 +26336,7 @@
  5.8045 5.809  5.8147 5.8424 5.844  5.8491 5.8603 5.8628 5.8637 5.8653
  5.8724 5.8795 5.8903 5.8956 5.8974 5.8974 5.8979 5.9075 5.9087 5.9103
  5.9187 5.919  5.9253 5.9257 5.9291 5.9305 5.931  5.9311 5.9335 5.9336
- 5.9379 5.941  5.9432 5.9459 5.9464 5.9492 5.9504 5.9516 5.9518 5.9524
+ 5.9379 5.9411 5.9432 5.9459 5.9464 5.9492 5.9504 5.9516 5.9518 5.9524
  5.9531 5.9556 5.956  5.9576 5.9584 5.9595 5.963  5.9631 5.9649 5.9654
  5.9709 5.9717 5.9719 5.9731 5.9738 5.9743 5.9771 5.9834 5.9837 5.9863
  5.9865 5.9872 5.9879 5.988  5.9891 5.9898 5.99   5.9909 5.9916 5.9939
@@ -27076,7 +27076,7 @@
  4.9103 4.9117 4.9159 4.9226 4.9285 4.9307 4.932  4.9428 4.9461 4.9474
  4.9475 4.9476 4.9487 4.9499 4.9525 4.9591 4.9606 4.9632 4.9642 4.9683
  4.9794 4.9848 4.988  4.9888 4.9942 4.9998 5.0049 5.0052 5.0076 5.0124
- 5.0169 5.0184 5.024  5.0283 5.0338 5.0354 5.0357 5.0427 5.0428 5.0429]</t>
+ 5.0169 5.0184 5.024  5.0283 5.0338 5.0354 5.0356 5.0427 5.0428 5.0429]</t>
         </is>
       </c>
     </row>
@@ -27702,7 +27702,7 @@
  5.1865 5.1865 5.1873 5.1885 5.1946 5.1997 5.2049 5.2064 5.2065 5.2067
  5.2092 5.2125 5.2128 5.2142 5.2157 5.2166 5.2174 5.2185 5.2186 5.2197
  5.2198 5.2216 5.2232 5.2267 5.2283 5.23   5.2303 5.2304 5.2333 5.2336
- 5.2349 5.2351 5.2353 5.2358 5.2358 5.2368 5.2371 5.2382 5.2386 5.2388
+ 5.2349 5.2351 5.2354 5.2358 5.2358 5.2368 5.2371 5.2382 5.2386 5.2388
  5.24   5.2411 5.2425 5.2432 5.2443 5.2452 5.2466 5.2476 5.2481 5.2501
  5.2503 5.2512 5.2515 5.2546 5.2546 5.2565 5.2573 5.2575 5.2578 5.2599
  5.2604 5.262  5.2621 5.2628 5.2629 5.263  5.2633 5.2646 5.2648 5.265
@@ -27950,7 +27950,7 @@
  5.5929 5.5953 5.5962 5.597  5.5985 5.6009 5.6014 5.602  5.6038 5.6042
  5.6057 5.6064 5.6084 5.6099 5.6105 5.6111 5.6122 5.6155 5.6163 5.6163
  5.6179 5.618  5.6183 5.6185 5.6195 5.6196 5.6213 5.6213 5.622  5.622
- 5.6286 5.6292 5.6296 5.6299 5.6312 5.6312 5.6319 5.6336 5.6362 5.6371
+ 5.6286 5.6292 5.6296 5.6299 5.6312 5.6312 5.6319 5.6336 5.6362 5.6372
  5.6377 5.6385 5.6386 5.6387 5.6395 5.6411 5.6424 5.6426 5.6427 5.6464]</t>
         </is>
       </c>
@@ -27978,7 +27978,7 @@
       <c r="C788" t="inlineStr">
         <is>
           <t>[6.0927 6.121  6.1877 6.2037 6.2181 6.2198 6.2288 6.2308 6.2377 6.2434
- 6.2452 6.2469 6.2549 6.2575 6.2654 6.2678 6.2701 6.2737 6.2789 6.2795
+ 6.2452 6.2469 6.2549 6.2575 6.2654 6.2678 6.2701 6.2737 6.2788 6.2795
  6.2811 6.2819 6.2864 6.2926 6.2962 6.2973 6.3037 6.3063 6.3088 6.3102
  6.3109 6.3125 6.3128 6.3129 6.3163 6.3172 6.3211 6.323  6.3246 6.3291
  6.3325 6.3334 6.3338 6.3349 6.3358 6.338  6.3404 6.3418 6.3472 6.3478
@@ -28573,7 +28573,7 @@
       <c r="C805" t="inlineStr">
         <is>
           <t>[7.9771 9.1061 9.1196 9.1227 9.1335 9.1632 9.1648 9.1724 9.184  9.1864
- 9.1904 9.1914 9.1924 9.195  9.1984 9.1988 9.2001 9.2021 9.2027 9.2043
+ 9.1904 9.1915 9.1924 9.195  9.1984 9.1988 9.2001 9.2021 9.2027 9.2043
  9.2044 9.2048 9.2075 9.2087 9.2087 9.209  9.2102 9.2128 9.2136 9.214
  9.2168 9.2214 9.2219 9.2238 9.2238 9.2261 9.2262 9.2283 9.2304 9.2315
  9.2325 9.2355 9.2374 9.2387 9.2391 9.2394 9.2395 9.242  9.2427 9.2452
@@ -28636,7 +28636,7 @@
   468086   76510  708550  492811  211648  172739 1108026 1042460  484403
   832049  742025  413006 1015219 1174041  148986  823007  968436  797323
   735741 1110666  442857  532491 1096601  382157  101425  169747  412745
-  635531  432110  174745  774577   68489  629724  821446  879628 1029789
+  635531  432110  174745  774577   68489  629724  821446 1029789  879628
   963710]</t>
         </is>
       </c>
@@ -28783,7 +28783,7 @@
       <c r="C811" t="inlineStr">
         <is>
           <t>[7.886  7.9002 7.9131 7.9258 7.9662 7.9753 7.9838 7.9845 7.9891 7.9975
- 8.0012 8.0016 8.0068 8.0078 8.0134 8.0256 8.0339 8.0395 8.0427 8.0433
+ 8.0012 8.0016 8.0068 8.0078 8.0134 8.0256 8.0339 8.0395 8.0427 8.0432
  8.0528 8.0543 8.0546 8.056  8.0574 8.0584 8.0592 8.06   8.0606 8.061
  8.0613 8.0644 8.0645 8.0658 8.0665 8.07   8.0735 8.0785 8.0797 8.0797
  8.0826 8.0832 8.0833 8.0836 8.0844 8.0844 8.0849 8.0857 8.0859 8.0871
@@ -29333,7 +29333,7 @@
   111651  917426  965141  413006  852841 1065982  266768 1103746  387362
   508885 1160716  135701  521539  433140  482902  720764   55884   15069
  1121509  770654 1146526  292551 1174971  103795  913904  640535  588313
- 1156293  273122  832049  863715   36969  716135 1041891  768806  984878
+ 1156293  832049  273122  863715   36969  716135 1041891  768806  984878
   562056  249014 1066188 1012679  626212  104776  231932  432110  380138
   615585  708403  779074  552594  480009  227091  159660 1159159  638302
   515771  863597  736333  590248  754918 1163295  500023  627263   90994
@@ -29353,7 +29353,7 @@
  6.1859 6.1875 6.1876 6.189  6.1897 6.19   6.1928 6.1938 6.1949 6.1979
  6.1985 6.1986 6.1987 6.1989 6.2    6.2    6.2005 6.2006 6.2016 6.2019
  6.2031 6.2033 6.2035 6.2037 6.2047 6.2058 6.2059 6.206  6.2061 6.2066
- 6.2087 6.2099 6.2102 6.2105 6.2107 6.211  6.2113 6.2116 6.2117 6.2118]</t>
+ 6.2087 6.2099 6.2102 6.2105 6.2107 6.2109 6.2113 6.2116 6.2117 6.2118]</t>
         </is>
       </c>
     </row>
@@ -29732,7 +29732,7 @@
           <t>[1.7803 2.2061 2.2904 2.2929 2.299  2.3016 2.3164 2.368  2.387  2.3885
  2.3958 2.4078 2.409  2.4208 2.4216 2.4413 2.4486 2.4536 2.4544 2.4584
  2.465  2.4662 2.4669 2.4688 2.4714 2.4724 2.475  2.4753 2.4762 2.48
- 2.4854 2.5056 2.5121 2.5138 2.5157 2.5169 2.5217 2.5234 2.5256 2.5264
+ 2.4854 2.5056 2.5121 2.5138 2.5157 2.5169 2.5218 2.5234 2.5256 2.5264
  2.5276 2.5279 2.5285 2.5301 2.5337 2.5346 2.535  2.535  2.538  2.5404
  2.5477 2.5506 2.5519 2.5589 2.5602 2.5616 2.565  2.5665 2.568  2.5694
  2.5696 2.5718 2.5765 2.5779 2.5787 2.5804 2.5829 2.5849 2.5861 2.5861
@@ -30678,8 +30678,8 @@
         <is>
           <t>[5.559  5.6057 5.651  5.6563 5.6757 5.6804 5.6824 5.688  5.6887 5.6895
  5.6924 5.6928 5.6941 5.6941 5.6942 5.696  5.6969 5.6981 5.6982 5.6985
- 5.6996 5.7003 5.7006 5.7012 5.7013 5.7013 5.7015 5.7016 5.7017 5.7018
- 5.7018 5.7025 5.7027 5.703  5.7035 5.7059 5.7074 5.7084 5.7097 5.7104
+ 5.6995 5.7003 5.7006 5.7012 5.7013 5.7013 5.7015 5.7016 5.7017 5.7018
+ 5.7018 5.7025 5.7027 5.703  5.7035 5.7059 5.7074 5.7084 5.7097 5.7103
  5.7112 5.7116 5.713  5.7136 5.7161 5.7172 5.7174 5.7179 5.7184 5.7188
  5.7196 5.7199 5.7201 5.7207 5.7209 5.7229 5.723  5.7232 5.7245 5.7261
  5.7263 5.7268 5.7271 5.7276 5.7295 5.7295 5.7302 5.7306 5.7329 5.7344
@@ -31101,7 +31101,7 @@
  4.7665 4.7691 4.7705 4.7713 4.7759 4.7761 4.7768 4.778  4.7783 4.7799
  4.7818 4.7819 4.7827 4.7834 4.7837 4.7852 4.7871 4.7872 4.7879 4.7884
  4.7894 4.7894 4.7904 4.7907 4.7913 4.7923 4.7941 4.795  4.7952 4.796
- 4.797  4.8027 4.8037 4.8046 4.8047 4.8052 4.8053 4.8066 4.8071 4.8082
+ 4.797  4.8027 4.8037 4.8046 4.8047 4.8052 4.8053 4.8066 4.8071 4.8081
  4.8087 4.8087 4.8088 4.8102 4.8112 4.8114 4.8116 4.8121 4.8145 4.8147
  4.8148 4.815  4.816  4.8163 4.8178 4.8178 4.8181 4.8182 4.8187 4.8188
  4.8211 4.8214 4.8216 4.8221 4.8224 4.8228 4.8234 4.8235 4.8238 4.8264
@@ -31138,7 +31138,7 @@
  4.2471 4.2482 4.2483 4.2486 4.2493 4.2496 4.2501 4.2504 4.2514 4.2521
  4.2522 4.2541 4.2546 4.2557 4.2566 4.2586 4.2589 4.2592 4.2605 4.2607
  4.2623 4.2632 4.2637 4.2638 4.264  4.2641 4.2653 4.2655 4.2667 4.2667
- 4.267  4.2689 4.2695 4.2703 4.2704 4.2724 4.273  4.273  4.2752 4.2756
+ 4.267  4.269  4.2695 4.2703 4.2704 4.2724 4.273  4.273  4.2752 4.2756
  4.2761 4.2764 4.2767 4.2769 4.2775 4.2778 4.2778 4.2789 4.2798 4.2815
  4.2833 4.2847 4.2855 4.2861 4.2866 4.2889 4.2921 4.2938 4.2951 4.2958]</t>
         </is>
@@ -31311,7 +31311,7 @@
  5.5942 5.5949 5.5996 5.6021 5.6025 5.6091 5.6111 5.6139 5.6159 5.6177
  5.6182 5.6193 5.6204 5.6259 5.6284 5.6304 5.6306 5.6327 5.6357 5.6366
  5.6372 5.6399 5.6404 5.6419 5.6427 5.6428 5.6445 5.6474 5.6479 5.6485
- 5.6511 5.6516 5.6544 5.658  5.6584 5.6584 5.6593 5.6601 5.6608 5.6617
+ 5.6511 5.6516 5.6544 5.658  5.6583 5.6584 5.6593 5.6601 5.6608 5.6617
  5.6621 5.663  5.6633 5.6635 5.6636 5.6641 5.6644 5.6647 5.6671 5.6677
  5.6686 5.6691 5.6693 5.6697 5.6698 5.6704 5.6705 5.6716 5.6721 5.6726
  5.6737 5.674  5.6744 5.6751 5.6755 5.676  5.6761 5.6764 5.6779 5.6784
@@ -31940,7 +31940,7 @@
  5.6518 5.6575 5.6629 5.6631 5.6653 5.6663 5.6678 5.6683 5.6688 5.6691
  5.6697 5.6701 5.6704 5.6707 5.6708 5.671  5.6717 5.6719 5.672  5.6722
  5.6726 5.6727 5.6728 5.6745 5.6764 5.6774 5.6804 5.6814 5.6829 5.6832
- 5.6835 5.6841 5.6865 5.6866 5.6867 5.6869 5.6871 5.6877 5.6879 5.6879
+ 5.6835 5.6841 5.6865 5.6866 5.6867 5.6869 5.6871 5.6877 5.6879 5.688
  5.688  5.6881 5.6882 5.6897 5.6898 5.6907 5.6908 5.6912 5.6925 5.694
  5.6941 5.6941 5.6948 5.6957 5.6959 5.6964 5.6965 5.6981 5.6981 5.6982
  5.6993 5.7002 5.7004 5.7012 5.7014 5.7021 5.7032 5.7033 5.704  5.7051
@@ -31972,7 +31972,7 @@
       <c r="C902" t="inlineStr">
         <is>
           <t>[5.751  5.7636 5.8261 5.8363 5.8461 5.8476 5.8527 5.8542 5.8646 5.8823
- 5.891  5.8965 5.8982 5.8989 5.9036 5.9051 5.9126 5.9164 5.9227 5.9266
+ 5.891  5.8965 5.8982 5.8988 5.9036 5.9051 5.9126 5.9164 5.9227 5.9266
  5.9295 5.9304 5.9358 5.9387 5.9456 5.95   5.955  5.9568 5.9578 5.9594
  5.9598 5.9607 5.9633 5.9645 5.9656 5.9665 5.9704 5.9708 5.9731 5.9781
  5.9789 5.9801 5.9823 5.9861 5.9861 5.9951 5.9962 5.9998 6.0012 6.0017
@@ -32153,7 +32153,7 @@
  5.6036 5.604  5.6068 5.6079 5.6099 5.6108 5.6114 5.6116 5.613  5.6138
  5.6148 5.6149 5.616  5.6166 5.6195 5.6224 5.623  5.6235 5.6278 5.6281
  5.6294 5.6309 5.6313 5.6316 5.6328 5.635  5.6355 5.6355 5.6367 5.6378
- 5.6384 5.6391 5.6404 5.6407 5.641  5.6416 5.6423 5.6429 5.643  5.6446
+ 5.6384 5.639  5.6404 5.6407 5.641  5.6416 5.6423 5.6429 5.643  5.6446
  5.6448 5.6453 5.646  5.6461 5.6462 5.6463 5.6475 5.6476 5.6476 5.6483
  5.6493 5.6498 5.6501 5.6515 5.6534 5.6549 5.6553 5.6558 5.6576 5.6599]</t>
         </is>
@@ -32658,8 +32658,8 @@
           <t>[ 972519  756035  716135  292551 1108883 1004755  620957  963859  855781
   905500  281134  641083 1109517  790361   99977  310855  229951  351221
   151109  534023  980016  706708  735741 1056726  979619  510653 1043069
-  961964  430077  228677  405244  433140  186772  588912 1139191   55208
- 1140539  761592 1130945  542367  822987  813288  393949  604850  899723
+  961964  430077  228677  405244  433140  186772  588912 1139191 1140539
+   55208  761592 1130945  542367  822987  813288  393949  604850  899723
   162616  666543  307015 1011558  356934  524991  793049  547196  735511
   528314  382123  472724  119960  928021  568704  411033   36969  423464
  1042460 1035310  882506 1127554  672332  838778  963897  508267  237541
@@ -32907,7 +32907,7 @@
   900572  218153  477129  250438  757038  892562 1026250 1093237 1152646
   729568  216056  583798  240889 1055214  308035  915480 1115081  321899
   885158 1031854  573838 1047400   56653  763173  301247  608487  965711
-  714736  196222  745163  594073   45051  575668  591129  140453  805827
+  714736  196222  745163  594073   45051  575668  591129  805827  140453
   146451  383003  593480  360036 1020938  512642  214624  949527  803288
   409626  774577 1125111  290255 1117131   32346  596663 1028343   80385
    51909  312698  742178   99537  501030  642699   56740  902312    1768
@@ -33484,7 +33484,7 @@
  5.0262 5.0264 5.0268 5.0268 5.0281 5.0304 5.0356 5.0365 5.0371 5.0401
  5.0413 5.0414 5.0418 5.0426 5.044  5.0451 5.0456 5.0459 5.0463 5.0464
  5.0471 5.0475 5.0487 5.0487 5.0512 5.0517 5.0521 5.0533 5.0546 5.0546
- 5.0547 5.0554 5.0554 5.0555 5.0556 5.0582 5.06   5.0605 5.0606 5.0613
+ 5.0547 5.0554 5.0554 5.0555 5.0556 5.0582 5.06   5.0605 5.0605 5.0613
  5.0626 5.0634 5.0661 5.0678 5.0681 5.0681 5.0708 5.0713 5.0719 5.0726]</t>
         </is>
       </c>
@@ -33553,7 +33553,7 @@
  5.0347 5.035  5.0365 5.037  5.0381 5.0391 5.0395 5.0403 5.0406 5.0409
  5.041  5.0419 5.0421 5.0424 5.0425 5.0425 5.0442 5.0449 5.0449 5.0469
  5.0472 5.0476 5.048  5.0496 5.0497 5.0499 5.053  5.053  5.0531 5.0533
- 5.0533 5.0537 5.0564 5.0591 5.0596 5.0603 5.0604 5.0608 5.0609 5.062
+ 5.0533 5.0537 5.0564 5.0591 5.0596 5.0603 5.0604 5.0608 5.0609 5.0619
  5.0622 5.0628 5.0632 5.0633 5.0646 5.0648 5.0649 5.0653 5.0655 5.0667
  5.0671 5.0677 5.0678 5.0683 5.0693 5.0695 5.0698 5.0698 5.0706 5.0721]</t>
         </is>
@@ -33617,7 +33617,7 @@
       <c r="C949" t="inlineStr">
         <is>
           <t>[5.8757 5.954  5.962  6.0828 6.098  6.112  6.1123 6.1391 6.1423 6.1469
- 6.148  6.1524 6.1647 6.1665 6.1694 6.1902 6.1978 6.1989 6.2108 6.2114
+ 6.1479 6.1524 6.1647 6.1665 6.1694 6.1902 6.1978 6.1989 6.2108 6.2114
  6.2134 6.2135 6.2139 6.2158 6.2226 6.224  6.2245 6.2259 6.2284 6.2312
  6.2316 6.2326 6.2343 6.2373 6.2373 6.2374 6.2376 6.2379 6.2401 6.2417
  6.2433 6.2463 6.2474 6.248  6.2486 6.2499 6.2541 6.2541 6.2568 6.257
@@ -33642,7 +33642,7 @@
   945969  844466  368058  128021   71587  534710  653783 1127554  604731
   439183 1035310  443714  121927 1158923  172175  782294  282976  653237
   816276  691925  472724 1023490  445168  681331 1123908  941899  158149
- 1162869  335986  569537   91247  187230  528349  173914  834977 1052549
+ 1162869  335986  569537   91247  187230  528349  173914 1052549  834977
   755482  585927  389455  800698  140706  884589  888013  896743   58545
   949818   63583  950149  438969  750296  398741 1112796  596677 1036616
   567088  588313    8803 1132186   19387 1047912  776312  543784 1018420
@@ -34885,7 +34885,7 @@
  5.9254 5.926  5.9274 5.9281 5.9287 5.9288 5.932  5.9324 5.9333 5.9335
  5.9347 5.9351 5.9356 5.9369 5.9377 5.9418 5.9433 5.9438 5.9448 5.946
  5.946  5.9478 5.9487 5.9558 5.9573 5.9575 5.9578 5.958  5.9583 5.9589
- 5.9593 5.9594 5.9597 5.96   5.9607 5.9618 5.9621 5.9632 5.9634 5.9643]</t>
+ 5.9592 5.9594 5.9597 5.96   5.9607 5.9618 5.9621 5.9632 5.9634 5.9643]</t>
         </is>
       </c>
     </row>
@@ -35331,7 +35331,7 @@
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>[5.4895 5.7224 5.8474 5.8845 5.9067 5.9162 5.9322 5.9362 5.9398 5.9666
+          <t>[5.4895 5.7224 5.8474 5.8845 5.9067 5.9163 5.9322 5.9362 5.9398 5.9666
  5.967  5.9683 5.9685 5.9741 5.9774 5.9805 5.9837 5.9842 5.9927 5.9935
  5.9996 6.0018 6.003  6.003  6.0123 6.0128 6.015  6.0185 6.0217 6.0243
  6.0263 6.0273 6.0276 6.0281 6.029  6.0332 6.0362 6.0406 6.0409 6.0412
